--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_1-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_1-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.321941120158478</v>
+        <v>3.499430999510702</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -539,230 +539,22 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08037456900138175</v>
+        <v>0.005710510605566985</v>
       </c>
       <c r="J2" t="n">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>99.46913477791267</v>
+        <v>5.206175152912869</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5008447565426969</v>
+        <v>7.483756775457006</v>
       </c>
       <c r="N2" t="n">
-        <v>2.136924979213735</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BR Vũng Tàu</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7.63265071403433</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02973971282553401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>122</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>59.17256533013368</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.307098908061867</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.610121442984561</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bình Phước</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11.34531263955143</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.04854881261540319</v>
-      </c>
-      <c r="J4" t="n">
-        <v>152</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>99.93023897740264</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.032935206218848</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.619897527660415</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bình Thuận</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3.068190162226358</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.007596418176090553</v>
-      </c>
-      <c r="J5" t="n">
-        <v>72</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>71.33705252543618</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.538496558616113</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.641442934428901</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bình Định</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4.471966522909089</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.06559504266938521</v>
-      </c>
-      <c r="J6" t="n">
-        <v>175</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>26.7636828741601</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9.732649533829838</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.841394954011745</v>
+        <v>5.719560106063317</v>
       </c>
     </row>
   </sheetData>

--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_1-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_1-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.85494766678411</v>
+        <v>6.493629837198133</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06110603140391586</v>
+        <v>0.04247207184958172</v>
       </c>
       <c r="I2" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>689</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -571,22 +571,22 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>31.76212661618976</v>
+        <v>38.99846032142506</v>
       </c>
       <c r="O2" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="P2" t="n">
-        <v>7.316734764546133</v>
+        <v>5.677026899135463</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.754802449069887</v>
+        <v>5.74995649670747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>BR Vũng Tàu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.325961806561669</v>
+        <v>11.26197330935052</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -612,16 +612,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008811517983778751</v>
+        <v>0.0797989311638688</v>
       </c>
       <c r="I3" t="n">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>115</v>
+        <v>998</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -630,83 +630,3359 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.1,0.5,0.9</t>
+          <t>IsNone</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.1584597578272</v>
+        <v>88.1235546055196</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="P3" t="n">
-        <v>8.789139646552362</v>
+        <v>4.829762521907733</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1110778827164751</v>
+        <v>4.152723592919251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Bình Phước</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15.2697573924159</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.07662554107349029</v>
+      </c>
+      <c r="I4" t="n">
+        <v>151</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>605</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>8.113329575557607</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2477774092509251</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.236564601821485</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bình Thuận</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5.315867351496292</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001115256814262748</v>
+      </c>
+      <c r="I5" t="n">
+        <v>68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>16</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>67.96767106861543</v>
+      </c>
+      <c r="O5" t="n">
+        <v>138</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.592259605677753</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.402340830138682</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bình Định</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5.200698655159566</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.01129837917324186</v>
+      </c>
+      <c r="I6" t="n">
+        <v>146</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>505</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>69.54569805426505</v>
+      </c>
+      <c r="O6" t="n">
+        <v>48</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.603222982373864</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.528813450835434</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bạc Liêu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6.131535776105559</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02999859238937952</v>
+      </c>
+      <c r="I7" t="n">
+        <v>118</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>478</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>15.8374458695716</v>
+      </c>
+      <c r="O7" t="n">
+        <v>209</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.264523831031045</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.977391612558677</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bắc Kạn</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7.74432031500673e-07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01664927307046669</v>
+      </c>
+      <c r="I8" t="n">
+        <v>177</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>766</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>26.41535631882498</v>
+      </c>
+      <c r="O8" t="n">
+        <v>104</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.269396770191076</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.049934774476546</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bắc Giang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1942422235990613</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0699246966769357</v>
+      </c>
+      <c r="I9" t="n">
+        <v>84</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>680</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>45.07525686423047</v>
+      </c>
+      <c r="O9" t="n">
+        <v>57</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.560385275616825</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.989963027768956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cao Bằng</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.004014584787958028</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001468124603049853</v>
+      </c>
+      <c r="I10" t="n">
+        <v>111</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>826</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>1.457118231866321</v>
+      </c>
+      <c r="O10" t="n">
+        <v>98</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.646999553342945</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.397592141079913</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cà Mau</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18.07635466673818</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04954663551450651</v>
+      </c>
+      <c r="I11" t="n">
+        <v>82</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>727</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>5.55004502014647</v>
+      </c>
+      <c r="O11" t="n">
+        <v>91</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.936694454442887</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6.905398380608322</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cần Thơ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4.399978075936205</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.003252274011412062</v>
+      </c>
+      <c r="I12" t="n">
+        <v>89</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>747</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>73.33261810289443</v>
+      </c>
+      <c r="O12" t="n">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.787518040750052</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9.81821111246504</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gia Lai</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4.360448440780301</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.06001035344129099</v>
+      </c>
+      <c r="I13" t="n">
+        <v>161</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>467</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>36.05741351691999</v>
+      </c>
+      <c r="O13" t="n">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7.075640346916401</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.1001113038843396</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hà Giang</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.356283100216503e-06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01170725686271474</v>
+      </c>
+      <c r="I14" t="n">
+        <v>143</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>879</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>38.48651051861884</v>
+      </c>
+      <c r="O14" t="n">
+        <v>58</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6.233065534058321</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4.547946000495896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3.046676620205586</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.003039862501698379</v>
+      </c>
+      <c r="I15" t="n">
+        <v>174</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>552</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>45.67471942808887</v>
+      </c>
+      <c r="O15" t="n">
+        <v>180</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.562464440142449</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>8.287456617400338</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3785726152968357</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.006863411526802794</v>
+      </c>
+      <c r="I16" t="n">
+        <v>127</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>423</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>45.86594417756066</v>
+      </c>
+      <c r="O16" t="n">
+        <v>164</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.301078425288772</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.7827350815864624</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hòa Bình</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02456067292837787</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.001429608582870884</v>
+      </c>
+      <c r="I17" t="n">
+        <v>171</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>959</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>69.2329081921101</v>
+      </c>
+      <c r="O17" t="n">
+        <v>76</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8.678561779852833</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.598818017541558</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hưng Yên</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01940570095002445</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0211786374608173</v>
+      </c>
+      <c r="I18" t="n">
+        <v>99</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>844</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>37.48985409861159</v>
+      </c>
+      <c r="O18" t="n">
+        <v>81</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.099297237289742</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>9.4967120623288</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hải Dương</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01922004584376221</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.02184772895648706</v>
+      </c>
+      <c r="I19" t="n">
+        <v>101</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>289</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>74.46269825001721</v>
+      </c>
+      <c r="O19" t="n">
+        <v>208</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9.607627436342852</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.712688421821253</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.63406945523578</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.001084750653470383</v>
+      </c>
+      <c r="I20" t="n">
+        <v>143</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>991</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>4.434897326255385</v>
+      </c>
+      <c r="O20" t="n">
+        <v>82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7.254362057998965</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6.999877635616351</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10.66631595002047</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.09361650053136118</v>
+      </c>
+      <c r="I21" t="n">
+        <v>98</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>548</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>43.66709074165172</v>
+      </c>
+      <c r="O21" t="n">
+        <v>127</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.650529740624634</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4.490390502010093</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kiên Giang</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5.571636334148628</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.06481707497633876</v>
+      </c>
+      <c r="I22" t="n">
+        <v>124</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>605</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>68.17883307534896</v>
+      </c>
+      <c r="O22" t="n">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.536773695042804</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.667546588287056</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kon Tum</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.067889239108426</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.009621217611597295</v>
+      </c>
+      <c r="I23" t="n">
+        <v>170</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>232</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>20.8368227138968</v>
+      </c>
+      <c r="O23" t="n">
+        <v>114</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.732719125588634</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3445905114179836</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lai Châu</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2.644797731457187e-06</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.07367939764541313</v>
+      </c>
+      <c r="I24" t="n">
+        <v>178</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>202</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>90.28733330983137</v>
+      </c>
+      <c r="O24" t="n">
+        <v>30</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.841479199117743</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5.850651109120928</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Long An</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5.160021976128861</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.08061914872878749</v>
+      </c>
+      <c r="I25" t="n">
+        <v>178</v>
+      </c>
+      <c r="J25" t="n">
+        <v>11</v>
+      </c>
+      <c r="K25" t="n">
+        <v>132</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>9.887464238680474</v>
+      </c>
+      <c r="O25" t="n">
+        <v>148</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.157716113122842</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8.776323464643141</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lào Cai</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0042976485011659</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0163658336144104</v>
+      </c>
+      <c r="I26" t="n">
+        <v>127</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>771</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>75.77978676726465</v>
+      </c>
+      <c r="O26" t="n">
+        <v>141</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9.368803080840108</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5.763528352669945</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.525818273246824</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001017037760232366</v>
+      </c>
+      <c r="I27" t="n">
+        <v>111</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>314</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>20.64463545261876</v>
+      </c>
+      <c r="O27" t="n">
+        <v>213</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.5473481277543</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7.563166385980457</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lạng Sơn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01496633929859506</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.005498373765165824</v>
+      </c>
+      <c r="I28" t="n">
+        <v>171</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>859</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>39.76719297344096</v>
+      </c>
+      <c r="O28" t="n">
+        <v>156</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.230877171865587</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.1355536570185773</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nam Định</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3562907161289933</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02360077687210831</v>
+      </c>
+      <c r="I29" t="n">
+        <v>86</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="n">
+        <v>830</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>81.48740378794965</v>
+      </c>
+      <c r="O29" t="n">
+        <v>168</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7.220292885844498</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.816491280742463</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nghệ An</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2397027808113254</v>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.005927978572577792</v>
+      </c>
+      <c r="I30" t="n">
+        <v>134</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>785</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>38.96792259180616</v>
+      </c>
+      <c r="O30" t="n">
+        <v>127</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7.751278953891799</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.877411551390951</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ninh Bình</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0483254296337858</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.006537828548631502</v>
+      </c>
+      <c r="I31" t="n">
+        <v>80</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>771</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>31.27722997178763</v>
+      </c>
+      <c r="O31" t="n">
+        <v>141</v>
+      </c>
+      <c r="P31" t="n">
+        <v>8.350945077899647</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>6.825166922302172</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2.901967475297105</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.09770931202102433</v>
+      </c>
+      <c r="I32" t="n">
+        <v>190</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>969</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>98.1782701426805</v>
+      </c>
+      <c r="O32" t="n">
+        <v>254</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9.917945783962633</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.936030817005085</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phú Thọ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0460313747123478</v>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.02694955625376605</v>
+      </c>
+      <c r="I33" t="n">
+        <v>55</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>668</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5947870389072207</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>9.697286454645074</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.009406111254816</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phú Yên</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>12.77306242244477</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.01138226144456698</v>
+      </c>
+      <c r="I34" t="n">
+        <v>133</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>590</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>54.549436269161</v>
+      </c>
+      <c r="O34" t="n">
+        <v>31</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7.600211102462562</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>7.447868560897136</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quảng Bình</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.588775045459394</v>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.003360611848269004</v>
+      </c>
+      <c r="I35" t="n">
+        <v>74</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>392</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>14.70501841407452</v>
+      </c>
+      <c r="O35" t="n">
+        <v>77</v>
+      </c>
+      <c r="P35" t="n">
+        <v>7.649700872130034</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.279965592627516</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Quảng Nam</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3.669365966805737</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.001049874461314869</v>
+      </c>
+      <c r="I36" t="n">
+        <v>94</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12</v>
+      </c>
+      <c r="K36" t="n">
+        <v>476</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>23.14731166259911</v>
+      </c>
+      <c r="O36" t="n">
+        <v>50</v>
+      </c>
+      <c r="P36" t="n">
+        <v>8.760345902584239</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.5805395610265729</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Quảng Ngãi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3.719208455950055</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.007589922165572915</v>
+      </c>
+      <c r="I37" t="n">
+        <v>120</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>889</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>26.7979037571689</v>
+      </c>
+      <c r="O37" t="n">
+        <v>134</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.937713548991095</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.676041418370573</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Quảng Ninh</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3.576585168673881</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.05827135446049406</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5915899376568348</v>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.003976486887412951</v>
+      </c>
+      <c r="I38" t="n">
+        <v>75</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>63.79525365477837</v>
+      </c>
+      <c r="O38" t="n">
+        <v>30</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.316227861069356</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>6.273816269399436</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Quảng Trị</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.733596033939246</v>
+      </c>
+      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.09741915996731518</v>
+      </c>
+      <c r="I39" t="n">
+        <v>90</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>976</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>17.80291308676694</v>
+      </c>
+      <c r="O39" t="n">
+        <v>71</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.016173114648178</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.728813080584659</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sóc Trăng</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8.931878990731578</v>
+      </c>
+      <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.06381884302298964</v>
+      </c>
+      <c r="I40" t="n">
+        <v>61</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15</v>
+      </c>
+      <c r="K40" t="n">
+        <v>417</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>44.52465210969926</v>
+      </c>
+      <c r="O40" t="n">
+        <v>192</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4.450130483504944</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>8.166731869397083</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sơn La</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.419871609441633e-07</v>
+      </c>
+      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0266350050446366</v>
+      </c>
+      <c r="I41" t="n">
+        <v>51</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>526</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>93.72309209485248</v>
+      </c>
+      <c r="O41" t="n">
+        <v>70</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8.686269810889934</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>6.358664544244063</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TT Huế</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.45941719542647</v>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.006570252163837913</v>
+      </c>
+      <c r="I42" t="n">
+        <v>86</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14</v>
+      </c>
+      <c r="K42" t="n">
+        <v>456</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>9.573456285623468</v>
+      </c>
+      <c r="O42" t="n">
+        <v>205</v>
+      </c>
+      <c r="P42" t="n">
+        <v>7.9205365209035</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>7.565127225860161</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1605850407646245</v>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0307157475777027</v>
+      </c>
+      <c r="I43" t="n">
+        <v>97</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>242</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>93.22571696343741</v>
+      </c>
+      <c r="O43" t="n">
+        <v>40</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3.043199121932978</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5.359214033362107</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Thái Bình</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2508280289429051</v>
+      </c>
+      <c r="D44" t="n">
+        <v>50</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.02025346115090571</v>
+      </c>
+      <c r="I44" t="n">
+        <v>130</v>
+      </c>
+      <c r="J44" t="n">
+        <v>15</v>
+      </c>
+      <c r="K44" t="n">
+        <v>910</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>73.57611759804387</v>
+      </c>
+      <c r="O44" t="n">
+        <v>141</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.837637089967865</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4.318975885284811</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02177114021803109</v>
+      </c>
+      <c r="D45" t="n">
+        <v>50</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.04503786887891183</v>
+      </c>
+      <c r="I45" t="n">
+        <v>70</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>942</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>7.353958699485304</v>
+      </c>
+      <c r="O45" t="n">
+        <v>123</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4.276030387431887</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>7.193060827135443</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tiền Giang</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>9.915361249937327</v>
+      </c>
+      <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.001656032257813406</v>
+      </c>
+      <c r="I46" t="n">
+        <v>109</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>782</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>81.11500122331987</v>
+      </c>
+      <c r="O46" t="n">
+        <v>140</v>
+      </c>
+      <c r="P46" t="n">
+        <v>8.591666806801495</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>9.971074969575415</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Trà Vinh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4.12460805401128</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.08977443340019682</v>
+      </c>
+      <c r="I47" t="n">
+        <v>183</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>29.17407238676774</v>
+      </c>
+      <c r="O47" t="n">
+        <v>195</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6.625810510304648</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5.65507970619819</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tuyên Quang</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4.351855203822337e-06</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.01447370082667388</v>
+      </c>
+      <c r="I48" t="n">
+        <v>173</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>837</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>30.28249570328545</v>
+      </c>
+      <c r="O48" t="n">
         <v>115</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P48" t="n">
+        <v>9.924641345050002</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.1104979960976381</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tây Ninh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8.236251911511316</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.07647189932160975</v>
+      </c>
+      <c r="I49" t="n">
+        <v>111</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>970</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>21.64987554816434</v>
+      </c>
+      <c r="O49" t="n">
+        <v>255</v>
+      </c>
+      <c r="P49" t="n">
+        <v>9.445310029927944</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5.549136489488003</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Vĩnh Phúc</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2566482047615695</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.07604135340621061</v>
+      </c>
+      <c r="I50" t="n">
+        <v>97</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>108</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>19.0594713353741</v>
+      </c>
+      <c r="O50" t="n">
+        <v>89</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.959112268345809</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>6.459090520693331</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yên Bái</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02189559564951092</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.01212345192463091</v>
+      </c>
+      <c r="I51" t="n">
+        <v>164</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>187</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>72.15749394663854</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.077839532391994</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3.7974826731559</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Điện Biên</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.005256066172868462</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.055448486522522</v>
+      </c>
+      <c r="I52" t="n">
+        <v>89</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>686</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>40.62693992351404</v>
+      </c>
+      <c r="O52" t="n">
+        <v>179</v>
+      </c>
+      <c r="P52" t="n">
+        <v>6.050816423554188</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.250445498321195</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>9.017468090292507</v>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.003233564669506311</v>
+      </c>
+      <c r="I53" t="n">
+        <v>132</v>
+      </c>
+      <c r="J53" t="n">
+        <v>15</v>
+      </c>
+      <c r="K53" t="n">
+        <v>971</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>28.13112174338131</v>
+      </c>
+      <c r="O53" t="n">
+        <v>108</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3.960777657065769</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>9.075416316051637</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2.418000856854908</v>
+      </c>
+      <c r="D54" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.09535886650143985</v>
+      </c>
+      <c r="I54" t="n">
+        <v>79</v>
+      </c>
+      <c r="J54" t="n">
+        <v>13</v>
+      </c>
+      <c r="K54" t="n">
+        <v>110</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>95.02813355802442</v>
+      </c>
+      <c r="O54" t="n">
+        <v>244</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3.314488005043643</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.1898334120402154</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Đắk Lắk</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>7.535813614059843</v>
+      </c>
+      <c r="D55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.09194869470536957</v>
+      </c>
+      <c r="I55" t="n">
+        <v>89</v>
+      </c>
+      <c r="J55" t="n">
+        <v>15</v>
+      </c>
+      <c r="K55" t="n">
+        <v>85</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>62.64013734150686</v>
+      </c>
+      <c r="O55" t="n">
+        <v>238</v>
+      </c>
+      <c r="P55" t="n">
+        <v>6.515955253932361</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>7.772026996889009</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>8.768088787359671</v>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.05858788509006854</v>
+      </c>
+      <c r="I56" t="n">
+        <v>68</v>
+      </c>
+      <c r="J56" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="n">
-        <v>324</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>IsNone</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>50.0903196472416</v>
-      </c>
-      <c r="O4" t="n">
-        <v>198</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.7844711874347385</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9.169609683409714</v>
+      <c r="K56" t="n">
+        <v>844</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>53.33821683209543</v>
+      </c>
+      <c r="O56" t="n">
+        <v>199</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.761137285033359</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>7.759591465998387</v>
       </c>
     </row>
   </sheetData>
